--- a/data/Research_SPSS.xlsx
+++ b/data/Research_SPSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD - Data/2020-10-23-usa-wine-consumers/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A2E9C-CFCA-AD45-9F60-085EAE0CFF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16964CCC-D2EE-CC41-A65C-E45040DE4AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{49B01344-88AC-4B82-A1B6-E837D6056AB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
   <si>
     <t>Age</t>
   </si>
@@ -250,6 +250,27 @@
   </si>
   <si>
     <t>29-h</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Brix</t>
+  </si>
+  <si>
+    <t>ABV</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>RRSugars</t>
+  </si>
+  <si>
+    <t>Anthocyanins</t>
+  </si>
+  <si>
+    <t>Phenolics</t>
   </si>
 </sst>
 </file>
@@ -628,9 +649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C3FA4-0991-4A84-B343-606E26CAEE39}">
   <dimension ref="A1:BQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4009,10 +4030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8B60D9-4165-42D3-89C2-F0E54B48DC89}">
-  <dimension ref="A1:AC76"/>
+  <dimension ref="A1:AJ76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="AA1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4041,7 +4062,7 @@
     <col min="29" max="29" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4129,8 +4150,29 @@
       <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4218,8 +4260,29 @@
       <c r="AC2">
         <v>1</v>
       </c>
+      <c r="AD2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>5.6</v>
+      </c>
+      <c r="AG2">
+        <v>3.68</v>
+      </c>
+      <c r="AH2">
+        <v>3.3</v>
+      </c>
+      <c r="AI2">
+        <v>144</v>
+      </c>
+      <c r="AJ2">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4307,8 +4370,29 @@
       <c r="AC3">
         <v>1</v>
       </c>
+      <c r="AD3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE3">
+        <v>14.4</v>
+      </c>
+      <c r="AF3">
+        <v>5.6</v>
+      </c>
+      <c r="AG3">
+        <v>3.69</v>
+      </c>
+      <c r="AH3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>254</v>
+      </c>
+      <c r="AJ3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4396,8 +4480,29 @@
       <c r="AC4">
         <v>1</v>
       </c>
+      <c r="AD4">
+        <v>9.4</v>
+      </c>
+      <c r="AE4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>5.9</v>
+      </c>
+      <c r="AG4">
+        <v>3.52</v>
+      </c>
+      <c r="AH4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI4">
+        <v>27</v>
+      </c>
+      <c r="AJ4">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4485,8 +4590,29 @@
       <c r="AC5">
         <v>1</v>
       </c>
+      <c r="AD5">
+        <v>9</v>
+      </c>
+      <c r="AE5">
+        <v>14.6</v>
+      </c>
+      <c r="AF5">
+        <v>5.9</v>
+      </c>
+      <c r="AG5">
+        <v>3.7</v>
+      </c>
+      <c r="AH5">
+        <v>7.9</v>
+      </c>
+      <c r="AI5">
+        <v>345</v>
+      </c>
+      <c r="AJ5">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4574,8 +4700,29 @@
       <c r="AC6">
         <v>1</v>
       </c>
+      <c r="AD6">
+        <v>7.9</v>
+      </c>
+      <c r="AE6">
+        <v>15</v>
+      </c>
+      <c r="AF6">
+        <v>5.9</v>
+      </c>
+      <c r="AG6">
+        <v>3.64</v>
+      </c>
+      <c r="AH6">
+        <v>1.5</v>
+      </c>
+      <c r="AI6">
+        <v>153</v>
+      </c>
+      <c r="AJ6">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4663,8 +4810,29 @@
       <c r="AC7">
         <v>0</v>
       </c>
+      <c r="AD7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>5.6</v>
+      </c>
+      <c r="AG7">
+        <v>3.68</v>
+      </c>
+      <c r="AH7">
+        <v>3.3</v>
+      </c>
+      <c r="AI7">
+        <v>144</v>
+      </c>
+      <c r="AJ7">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4752,8 +4920,29 @@
       <c r="AC8">
         <v>0</v>
       </c>
+      <c r="AD8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE8">
+        <v>14.4</v>
+      </c>
+      <c r="AF8">
+        <v>5.6</v>
+      </c>
+      <c r="AG8">
+        <v>3.69</v>
+      </c>
+      <c r="AH8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI8">
+        <v>254</v>
+      </c>
+      <c r="AJ8">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4841,8 +5030,29 @@
       <c r="AC9">
         <v>0</v>
       </c>
+      <c r="AD9">
+        <v>9.4</v>
+      </c>
+      <c r="AE9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>5.9</v>
+      </c>
+      <c r="AG9">
+        <v>3.52</v>
+      </c>
+      <c r="AH9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI9">
+        <v>27</v>
+      </c>
+      <c r="AJ9">
+        <v>51</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4930,8 +5140,29 @@
       <c r="AC10">
         <v>0</v>
       </c>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AE10">
+        <v>14.6</v>
+      </c>
+      <c r="AF10">
+        <v>5.9</v>
+      </c>
+      <c r="AG10">
+        <v>3.7</v>
+      </c>
+      <c r="AH10">
+        <v>7.9</v>
+      </c>
+      <c r="AI10">
+        <v>345</v>
+      </c>
+      <c r="AJ10">
+        <v>52</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5019,8 +5250,29 @@
       <c r="AC11">
         <v>0</v>
       </c>
+      <c r="AD11">
+        <v>7.9</v>
+      </c>
+      <c r="AE11">
+        <v>15</v>
+      </c>
+      <c r="AF11">
+        <v>5.9</v>
+      </c>
+      <c r="AG11">
+        <v>3.64</v>
+      </c>
+      <c r="AH11">
+        <v>1.5</v>
+      </c>
+      <c r="AI11">
+        <v>153</v>
+      </c>
+      <c r="AJ11">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5108,8 +5360,29 @@
       <c r="AC12">
         <v>1</v>
       </c>
+      <c r="AD12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF12">
+        <v>5.6</v>
+      </c>
+      <c r="AG12">
+        <v>3.68</v>
+      </c>
+      <c r="AH12">
+        <v>3.3</v>
+      </c>
+      <c r="AI12">
+        <v>144</v>
+      </c>
+      <c r="AJ12">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5197,8 +5470,29 @@
       <c r="AC13">
         <v>1</v>
       </c>
+      <c r="AD13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE13">
+        <v>14.4</v>
+      </c>
+      <c r="AF13">
+        <v>5.6</v>
+      </c>
+      <c r="AG13">
+        <v>3.69</v>
+      </c>
+      <c r="AH13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI13">
+        <v>254</v>
+      </c>
+      <c r="AJ13">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5286,8 +5580,29 @@
       <c r="AC14">
         <v>1</v>
       </c>
+      <c r="AD14">
+        <v>9.4</v>
+      </c>
+      <c r="AE14">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>5.9</v>
+      </c>
+      <c r="AG14">
+        <v>3.52</v>
+      </c>
+      <c r="AH14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI14">
+        <v>27</v>
+      </c>
+      <c r="AJ14">
+        <v>51</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5375,8 +5690,29 @@
       <c r="AC15">
         <v>1</v>
       </c>
+      <c r="AD15">
+        <v>9</v>
+      </c>
+      <c r="AE15">
+        <v>14.6</v>
+      </c>
+      <c r="AF15">
+        <v>5.9</v>
+      </c>
+      <c r="AG15">
+        <v>3.7</v>
+      </c>
+      <c r="AH15">
+        <v>7.9</v>
+      </c>
+      <c r="AI15">
+        <v>345</v>
+      </c>
+      <c r="AJ15">
+        <v>52</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5464,8 +5800,29 @@
       <c r="AC16">
         <v>1</v>
       </c>
+      <c r="AD16">
+        <v>7.9</v>
+      </c>
+      <c r="AE16">
+        <v>15</v>
+      </c>
+      <c r="AF16">
+        <v>5.9</v>
+      </c>
+      <c r="AG16">
+        <v>3.64</v>
+      </c>
+      <c r="AH16">
+        <v>1.5</v>
+      </c>
+      <c r="AI16">
+        <v>153</v>
+      </c>
+      <c r="AJ16">
+        <v>46</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5553,8 +5910,29 @@
       <c r="AC17">
         <v>0</v>
       </c>
+      <c r="AD17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF17">
+        <v>5.6</v>
+      </c>
+      <c r="AG17">
+        <v>3.68</v>
+      </c>
+      <c r="AH17">
+        <v>3.3</v>
+      </c>
+      <c r="AI17">
+        <v>144</v>
+      </c>
+      <c r="AJ17">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5642,8 +6020,29 @@
       <c r="AC18">
         <v>0</v>
       </c>
+      <c r="AD18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE18">
+        <v>14.4</v>
+      </c>
+      <c r="AF18">
+        <v>5.6</v>
+      </c>
+      <c r="AG18">
+        <v>3.69</v>
+      </c>
+      <c r="AH18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI18">
+        <v>254</v>
+      </c>
+      <c r="AJ18">
+        <v>50</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5731,8 +6130,29 @@
       <c r="AC19">
         <v>1</v>
       </c>
+      <c r="AD19">
+        <v>9.4</v>
+      </c>
+      <c r="AE19">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>5.9</v>
+      </c>
+      <c r="AG19">
+        <v>3.52</v>
+      </c>
+      <c r="AH19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI19">
+        <v>27</v>
+      </c>
+      <c r="AJ19">
+        <v>51</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5820,8 +6240,29 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20">
+        <v>14.6</v>
+      </c>
+      <c r="AF20">
+        <v>5.9</v>
+      </c>
+      <c r="AG20">
+        <v>3.7</v>
+      </c>
+      <c r="AH20">
+        <v>7.9</v>
+      </c>
+      <c r="AI20">
+        <v>345</v>
+      </c>
+      <c r="AJ20">
+        <v>52</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5909,8 +6350,29 @@
       <c r="AC21">
         <v>0</v>
       </c>
+      <c r="AD21">
+        <v>7.9</v>
+      </c>
+      <c r="AE21">
+        <v>15</v>
+      </c>
+      <c r="AF21">
+        <v>5.9</v>
+      </c>
+      <c r="AG21">
+        <v>3.64</v>
+      </c>
+      <c r="AH21">
+        <v>1.5</v>
+      </c>
+      <c r="AI21">
+        <v>153</v>
+      </c>
+      <c r="AJ21">
+        <v>46</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5998,8 +6460,29 @@
       <c r="AC22">
         <v>1</v>
       </c>
+      <c r="AD22">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE22">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF22">
+        <v>5.6</v>
+      </c>
+      <c r="AG22">
+        <v>3.68</v>
+      </c>
+      <c r="AH22">
+        <v>3.3</v>
+      </c>
+      <c r="AI22">
+        <v>144</v>
+      </c>
+      <c r="AJ22">
+        <v>55</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6087,8 +6570,29 @@
       <c r="AC23">
         <v>0</v>
       </c>
+      <c r="AD23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE23">
+        <v>14.4</v>
+      </c>
+      <c r="AF23">
+        <v>5.6</v>
+      </c>
+      <c r="AG23">
+        <v>3.69</v>
+      </c>
+      <c r="AH23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI23">
+        <v>254</v>
+      </c>
+      <c r="AJ23">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -6176,8 +6680,29 @@
       <c r="AC24">
         <v>1</v>
       </c>
+      <c r="AD24">
+        <v>9.4</v>
+      </c>
+      <c r="AE24">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>5.9</v>
+      </c>
+      <c r="AG24">
+        <v>3.52</v>
+      </c>
+      <c r="AH24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI24">
+        <v>27</v>
+      </c>
+      <c r="AJ24">
+        <v>51</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6265,8 +6790,29 @@
       <c r="AC25">
         <v>1</v>
       </c>
+      <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>14.6</v>
+      </c>
+      <c r="AF25">
+        <v>5.9</v>
+      </c>
+      <c r="AG25">
+        <v>3.7</v>
+      </c>
+      <c r="AH25">
+        <v>7.9</v>
+      </c>
+      <c r="AI25">
+        <v>345</v>
+      </c>
+      <c r="AJ25">
+        <v>52</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6354,8 +6900,29 @@
       <c r="AC26">
         <v>0</v>
       </c>
+      <c r="AD26">
+        <v>7.9</v>
+      </c>
+      <c r="AE26">
+        <v>15</v>
+      </c>
+      <c r="AF26">
+        <v>5.9</v>
+      </c>
+      <c r="AG26">
+        <v>3.64</v>
+      </c>
+      <c r="AH26">
+        <v>1.5</v>
+      </c>
+      <c r="AI26">
+        <v>153</v>
+      </c>
+      <c r="AJ26">
+        <v>46</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -6443,8 +7010,29 @@
       <c r="AC27">
         <v>1</v>
       </c>
+      <c r="AD27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE27">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF27">
+        <v>5.6</v>
+      </c>
+      <c r="AG27">
+        <v>3.68</v>
+      </c>
+      <c r="AH27">
+        <v>3.3</v>
+      </c>
+      <c r="AI27">
+        <v>144</v>
+      </c>
+      <c r="AJ27">
+        <v>55</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6532,8 +7120,29 @@
       <c r="AC28">
         <v>1</v>
       </c>
+      <c r="AD28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE28">
+        <v>14.4</v>
+      </c>
+      <c r="AF28">
+        <v>5.6</v>
+      </c>
+      <c r="AG28">
+        <v>3.69</v>
+      </c>
+      <c r="AH28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI28">
+        <v>254</v>
+      </c>
+      <c r="AJ28">
+        <v>50</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -6621,8 +7230,29 @@
       <c r="AC29">
         <v>1</v>
       </c>
+      <c r="AD29">
+        <v>9.4</v>
+      </c>
+      <c r="AE29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>5.9</v>
+      </c>
+      <c r="AG29">
+        <v>3.52</v>
+      </c>
+      <c r="AH29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI29">
+        <v>27</v>
+      </c>
+      <c r="AJ29">
+        <v>51</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -6710,8 +7340,29 @@
       <c r="AC30">
         <v>1</v>
       </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>14.6</v>
+      </c>
+      <c r="AF30">
+        <v>5.9</v>
+      </c>
+      <c r="AG30">
+        <v>3.7</v>
+      </c>
+      <c r="AH30">
+        <v>7.9</v>
+      </c>
+      <c r="AI30">
+        <v>345</v>
+      </c>
+      <c r="AJ30">
+        <v>52</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -6799,8 +7450,29 @@
       <c r="AC31">
         <v>1</v>
       </c>
+      <c r="AD31">
+        <v>7.9</v>
+      </c>
+      <c r="AE31">
+        <v>15</v>
+      </c>
+      <c r="AF31">
+        <v>5.9</v>
+      </c>
+      <c r="AG31">
+        <v>3.64</v>
+      </c>
+      <c r="AH31">
+        <v>1.5</v>
+      </c>
+      <c r="AI31">
+        <v>153</v>
+      </c>
+      <c r="AJ31">
+        <v>46</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -6888,8 +7560,29 @@
       <c r="AC32">
         <v>1</v>
       </c>
+      <c r="AD32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE32">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF32">
+        <v>5.6</v>
+      </c>
+      <c r="AG32">
+        <v>3.68</v>
+      </c>
+      <c r="AH32">
+        <v>3.3</v>
+      </c>
+      <c r="AI32">
+        <v>144</v>
+      </c>
+      <c r="AJ32">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -6977,8 +7670,29 @@
       <c r="AC33">
         <v>1</v>
       </c>
+      <c r="AD33">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE33">
+        <v>14.4</v>
+      </c>
+      <c r="AF33">
+        <v>5.6</v>
+      </c>
+      <c r="AG33">
+        <v>3.69</v>
+      </c>
+      <c r="AH33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI33">
+        <v>254</v>
+      </c>
+      <c r="AJ33">
+        <v>50</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -7066,8 +7780,29 @@
       <c r="AC34">
         <v>1</v>
       </c>
+      <c r="AD34">
+        <v>9.4</v>
+      </c>
+      <c r="AE34">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF34">
+        <v>5.9</v>
+      </c>
+      <c r="AG34">
+        <v>3.52</v>
+      </c>
+      <c r="AH34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI34">
+        <v>27</v>
+      </c>
+      <c r="AJ34">
+        <v>51</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -7155,8 +7890,29 @@
       <c r="AC35">
         <v>1</v>
       </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>14.6</v>
+      </c>
+      <c r="AF35">
+        <v>5.9</v>
+      </c>
+      <c r="AG35">
+        <v>3.7</v>
+      </c>
+      <c r="AH35">
+        <v>7.9</v>
+      </c>
+      <c r="AI35">
+        <v>345</v>
+      </c>
+      <c r="AJ35">
+        <v>52</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7</v>
       </c>
@@ -7244,8 +8000,29 @@
       <c r="AC36">
         <v>0</v>
       </c>
+      <c r="AD36">
+        <v>7.9</v>
+      </c>
+      <c r="AE36">
+        <v>15</v>
+      </c>
+      <c r="AF36">
+        <v>5.9</v>
+      </c>
+      <c r="AG36">
+        <v>3.64</v>
+      </c>
+      <c r="AH36">
+        <v>1.5</v>
+      </c>
+      <c r="AI36">
+        <v>153</v>
+      </c>
+      <c r="AJ36">
+        <v>46</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -7333,8 +8110,29 @@
       <c r="AC37">
         <v>0</v>
       </c>
+      <c r="AD37">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE37">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF37">
+        <v>5.6</v>
+      </c>
+      <c r="AG37">
+        <v>3.68</v>
+      </c>
+      <c r="AH37">
+        <v>3.3</v>
+      </c>
+      <c r="AI37">
+        <v>144</v>
+      </c>
+      <c r="AJ37">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -7422,8 +8220,29 @@
       <c r="AC38">
         <v>1</v>
       </c>
+      <c r="AD38">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE38">
+        <v>14.4</v>
+      </c>
+      <c r="AF38">
+        <v>5.6</v>
+      </c>
+      <c r="AG38">
+        <v>3.69</v>
+      </c>
+      <c r="AH38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI38">
+        <v>254</v>
+      </c>
+      <c r="AJ38">
+        <v>50</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -7511,8 +8330,29 @@
       <c r="AC39">
         <v>1</v>
       </c>
+      <c r="AD39">
+        <v>9.4</v>
+      </c>
+      <c r="AE39">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF39">
+        <v>5.9</v>
+      </c>
+      <c r="AG39">
+        <v>3.52</v>
+      </c>
+      <c r="AH39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI39">
+        <v>27</v>
+      </c>
+      <c r="AJ39">
+        <v>51</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -7600,8 +8440,29 @@
       <c r="AC40">
         <v>1</v>
       </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>14.6</v>
+      </c>
+      <c r="AF40">
+        <v>5.9</v>
+      </c>
+      <c r="AG40">
+        <v>3.7</v>
+      </c>
+      <c r="AH40">
+        <v>7.9</v>
+      </c>
+      <c r="AI40">
+        <v>345</v>
+      </c>
+      <c r="AJ40">
+        <v>52</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -7689,8 +8550,29 @@
       <c r="AC41">
         <v>1</v>
       </c>
+      <c r="AD41">
+        <v>7.9</v>
+      </c>
+      <c r="AE41">
+        <v>15</v>
+      </c>
+      <c r="AF41">
+        <v>5.9</v>
+      </c>
+      <c r="AG41">
+        <v>3.64</v>
+      </c>
+      <c r="AH41">
+        <v>1.5</v>
+      </c>
+      <c r="AI41">
+        <v>153</v>
+      </c>
+      <c r="AJ41">
+        <v>46</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -7778,8 +8660,29 @@
       <c r="AC42">
         <v>1</v>
       </c>
+      <c r="AD42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF42">
+        <v>5.6</v>
+      </c>
+      <c r="AG42">
+        <v>3.68</v>
+      </c>
+      <c r="AH42">
+        <v>3.3</v>
+      </c>
+      <c r="AI42">
+        <v>144</v>
+      </c>
+      <c r="AJ42">
+        <v>55</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9</v>
       </c>
@@ -7867,8 +8770,29 @@
       <c r="AC43">
         <v>0</v>
       </c>
+      <c r="AD43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE43">
+        <v>14.4</v>
+      </c>
+      <c r="AF43">
+        <v>5.6</v>
+      </c>
+      <c r="AG43">
+        <v>3.69</v>
+      </c>
+      <c r="AH43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI43">
+        <v>254</v>
+      </c>
+      <c r="AJ43">
+        <v>50</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9</v>
       </c>
@@ -7956,8 +8880,29 @@
       <c r="AC44">
         <v>1</v>
       </c>
+      <c r="AD44">
+        <v>9.4</v>
+      </c>
+      <c r="AE44">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF44">
+        <v>5.9</v>
+      </c>
+      <c r="AG44">
+        <v>3.52</v>
+      </c>
+      <c r="AH44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI44">
+        <v>27</v>
+      </c>
+      <c r="AJ44">
+        <v>51</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -8045,8 +8990,29 @@
       <c r="AC45">
         <v>0</v>
       </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>14.6</v>
+      </c>
+      <c r="AF45">
+        <v>5.9</v>
+      </c>
+      <c r="AG45">
+        <v>3.7</v>
+      </c>
+      <c r="AH45">
+        <v>7.9</v>
+      </c>
+      <c r="AI45">
+        <v>345</v>
+      </c>
+      <c r="AJ45">
+        <v>52</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
@@ -8134,8 +9100,29 @@
       <c r="AC46">
         <v>1</v>
       </c>
+      <c r="AD46">
+        <v>7.9</v>
+      </c>
+      <c r="AE46">
+        <v>15</v>
+      </c>
+      <c r="AF46">
+        <v>5.9</v>
+      </c>
+      <c r="AG46">
+        <v>3.64</v>
+      </c>
+      <c r="AH46">
+        <v>1.5</v>
+      </c>
+      <c r="AI46">
+        <v>153</v>
+      </c>
+      <c r="AJ46">
+        <v>46</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -8223,8 +9210,29 @@
       <c r="AC47">
         <v>0</v>
       </c>
+      <c r="AD47">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE47">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF47">
+        <v>5.6</v>
+      </c>
+      <c r="AG47">
+        <v>3.68</v>
+      </c>
+      <c r="AH47">
+        <v>3.3</v>
+      </c>
+      <c r="AI47">
+        <v>144</v>
+      </c>
+      <c r="AJ47">
+        <v>55</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -8312,8 +9320,29 @@
       <c r="AC48">
         <v>0</v>
       </c>
+      <c r="AD48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE48">
+        <v>14.4</v>
+      </c>
+      <c r="AF48">
+        <v>5.6</v>
+      </c>
+      <c r="AG48">
+        <v>3.69</v>
+      </c>
+      <c r="AH48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI48">
+        <v>254</v>
+      </c>
+      <c r="AJ48">
+        <v>50</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -8401,8 +9430,29 @@
       <c r="AC49">
         <v>1</v>
       </c>
+      <c r="AD49">
+        <v>9.4</v>
+      </c>
+      <c r="AE49">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF49">
+        <v>5.9</v>
+      </c>
+      <c r="AG49">
+        <v>3.52</v>
+      </c>
+      <c r="AH49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI49">
+        <v>27</v>
+      </c>
+      <c r="AJ49">
+        <v>51</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -8490,8 +9540,29 @@
       <c r="AC50">
         <v>1</v>
       </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>14.6</v>
+      </c>
+      <c r="AF50">
+        <v>5.9</v>
+      </c>
+      <c r="AG50">
+        <v>3.7</v>
+      </c>
+      <c r="AH50">
+        <v>7.9</v>
+      </c>
+      <c r="AI50">
+        <v>345</v>
+      </c>
+      <c r="AJ50">
+        <v>52</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -8579,8 +9650,29 @@
       <c r="AC51">
         <v>0</v>
       </c>
+      <c r="AD51">
+        <v>7.9</v>
+      </c>
+      <c r="AE51">
+        <v>15</v>
+      </c>
+      <c r="AF51">
+        <v>5.9</v>
+      </c>
+      <c r="AG51">
+        <v>3.64</v>
+      </c>
+      <c r="AH51">
+        <v>1.5</v>
+      </c>
+      <c r="AI51">
+        <v>153</v>
+      </c>
+      <c r="AJ51">
+        <v>46</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -8668,8 +9760,29 @@
       <c r="AC52">
         <v>0</v>
       </c>
+      <c r="AD52">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE52">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF52">
+        <v>5.6</v>
+      </c>
+      <c r="AG52">
+        <v>3.68</v>
+      </c>
+      <c r="AH52">
+        <v>3.3</v>
+      </c>
+      <c r="AI52">
+        <v>144</v>
+      </c>
+      <c r="AJ52">
+        <v>55</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>11</v>
       </c>
@@ -8757,8 +9870,29 @@
       <c r="AC53">
         <v>0</v>
       </c>
+      <c r="AD53">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE53">
+        <v>14.4</v>
+      </c>
+      <c r="AF53">
+        <v>5.6</v>
+      </c>
+      <c r="AG53">
+        <v>3.69</v>
+      </c>
+      <c r="AH53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI53">
+        <v>254</v>
+      </c>
+      <c r="AJ53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11</v>
       </c>
@@ -8846,8 +9980,29 @@
       <c r="AC54">
         <v>1</v>
       </c>
+      <c r="AD54">
+        <v>9.4</v>
+      </c>
+      <c r="AE54">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF54">
+        <v>5.9</v>
+      </c>
+      <c r="AG54">
+        <v>3.52</v>
+      </c>
+      <c r="AH54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI54">
+        <v>27</v>
+      </c>
+      <c r="AJ54">
+        <v>51</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>11</v>
       </c>
@@ -8935,8 +10090,29 @@
       <c r="AC55">
         <v>0</v>
       </c>
+      <c r="AD55">
+        <v>9</v>
+      </c>
+      <c r="AE55">
+        <v>14.6</v>
+      </c>
+      <c r="AF55">
+        <v>5.9</v>
+      </c>
+      <c r="AG55">
+        <v>3.7</v>
+      </c>
+      <c r="AH55">
+        <v>7.9</v>
+      </c>
+      <c r="AI55">
+        <v>345</v>
+      </c>
+      <c r="AJ55">
+        <v>52</v>
+      </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11</v>
       </c>
@@ -9024,8 +10200,29 @@
       <c r="AC56">
         <v>0</v>
       </c>
+      <c r="AD56">
+        <v>7.9</v>
+      </c>
+      <c r="AE56">
+        <v>15</v>
+      </c>
+      <c r="AF56">
+        <v>5.9</v>
+      </c>
+      <c r="AG56">
+        <v>3.64</v>
+      </c>
+      <c r="AH56">
+        <v>1.5</v>
+      </c>
+      <c r="AI56">
+        <v>153</v>
+      </c>
+      <c r="AJ56">
+        <v>46</v>
+      </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12</v>
       </c>
@@ -9113,8 +10310,29 @@
       <c r="AC57">
         <v>0</v>
       </c>
+      <c r="AD57">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE57">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF57">
+        <v>5.6</v>
+      </c>
+      <c r="AG57">
+        <v>3.68</v>
+      </c>
+      <c r="AH57">
+        <v>3.3</v>
+      </c>
+      <c r="AI57">
+        <v>144</v>
+      </c>
+      <c r="AJ57">
+        <v>55</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>12</v>
       </c>
@@ -9202,8 +10420,29 @@
       <c r="AC58">
         <v>0</v>
       </c>
+      <c r="AD58">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE58">
+        <v>14.4</v>
+      </c>
+      <c r="AF58">
+        <v>5.6</v>
+      </c>
+      <c r="AG58">
+        <v>3.69</v>
+      </c>
+      <c r="AH58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI58">
+        <v>254</v>
+      </c>
+      <c r="AJ58">
+        <v>50</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>12</v>
       </c>
@@ -9291,8 +10530,29 @@
       <c r="AC59">
         <v>1</v>
       </c>
+      <c r="AD59">
+        <v>9.4</v>
+      </c>
+      <c r="AE59">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF59">
+        <v>5.9</v>
+      </c>
+      <c r="AG59">
+        <v>3.52</v>
+      </c>
+      <c r="AH59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI59">
+        <v>27</v>
+      </c>
+      <c r="AJ59">
+        <v>51</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>12</v>
       </c>
@@ -9380,8 +10640,29 @@
       <c r="AC60">
         <v>0</v>
       </c>
+      <c r="AD60">
+        <v>9</v>
+      </c>
+      <c r="AE60">
+        <v>14.6</v>
+      </c>
+      <c r="AF60">
+        <v>5.9</v>
+      </c>
+      <c r="AG60">
+        <v>3.7</v>
+      </c>
+      <c r="AH60">
+        <v>7.9</v>
+      </c>
+      <c r="AI60">
+        <v>345</v>
+      </c>
+      <c r="AJ60">
+        <v>52</v>
+      </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>12</v>
       </c>
@@ -9469,8 +10750,29 @@
       <c r="AC61">
         <v>0</v>
       </c>
+      <c r="AD61">
+        <v>7.9</v>
+      </c>
+      <c r="AE61">
+        <v>15</v>
+      </c>
+      <c r="AF61">
+        <v>5.9</v>
+      </c>
+      <c r="AG61">
+        <v>3.64</v>
+      </c>
+      <c r="AH61">
+        <v>1.5</v>
+      </c>
+      <c r="AI61">
+        <v>153</v>
+      </c>
+      <c r="AJ61">
+        <v>46</v>
+      </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>13</v>
       </c>
@@ -9558,8 +10860,29 @@
       <c r="AC62">
         <v>1</v>
       </c>
+      <c r="AD62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE62">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF62">
+        <v>5.6</v>
+      </c>
+      <c r="AG62">
+        <v>3.68</v>
+      </c>
+      <c r="AH62">
+        <v>3.3</v>
+      </c>
+      <c r="AI62">
+        <v>144</v>
+      </c>
+      <c r="AJ62">
+        <v>55</v>
+      </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>13</v>
       </c>
@@ -9647,8 +10970,29 @@
       <c r="AC63">
         <v>1</v>
       </c>
+      <c r="AD63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE63">
+        <v>14.4</v>
+      </c>
+      <c r="AF63">
+        <v>5.6</v>
+      </c>
+      <c r="AG63">
+        <v>3.69</v>
+      </c>
+      <c r="AH63">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI63">
+        <v>254</v>
+      </c>
+      <c r="AJ63">
+        <v>50</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>13</v>
       </c>
@@ -9736,8 +11080,29 @@
       <c r="AC64">
         <v>1</v>
       </c>
+      <c r="AD64">
+        <v>9.4</v>
+      </c>
+      <c r="AE64">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF64">
+        <v>5.9</v>
+      </c>
+      <c r="AG64">
+        <v>3.52</v>
+      </c>
+      <c r="AH64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI64">
+        <v>27</v>
+      </c>
+      <c r="AJ64">
+        <v>51</v>
+      </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>13</v>
       </c>
@@ -9825,8 +11190,29 @@
       <c r="AC65">
         <v>1</v>
       </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>14.6</v>
+      </c>
+      <c r="AF65">
+        <v>5.9</v>
+      </c>
+      <c r="AG65">
+        <v>3.7</v>
+      </c>
+      <c r="AH65">
+        <v>7.9</v>
+      </c>
+      <c r="AI65">
+        <v>345</v>
+      </c>
+      <c r="AJ65">
+        <v>52</v>
+      </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>13</v>
       </c>
@@ -9914,8 +11300,29 @@
       <c r="AC66">
         <v>1</v>
       </c>
+      <c r="AD66">
+        <v>7.9</v>
+      </c>
+      <c r="AE66">
+        <v>15</v>
+      </c>
+      <c r="AF66">
+        <v>5.9</v>
+      </c>
+      <c r="AG66">
+        <v>3.64</v>
+      </c>
+      <c r="AH66">
+        <v>1.5</v>
+      </c>
+      <c r="AI66">
+        <v>153</v>
+      </c>
+      <c r="AJ66">
+        <v>46</v>
+      </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>14</v>
       </c>
@@ -10003,8 +11410,29 @@
       <c r="AC67">
         <v>1</v>
       </c>
+      <c r="AD67">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE67">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF67">
+        <v>5.6</v>
+      </c>
+      <c r="AG67">
+        <v>3.68</v>
+      </c>
+      <c r="AH67">
+        <v>3.3</v>
+      </c>
+      <c r="AI67">
+        <v>144</v>
+      </c>
+      <c r="AJ67">
+        <v>55</v>
+      </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -10092,8 +11520,29 @@
       <c r="AC68">
         <v>0</v>
       </c>
+      <c r="AD68">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE68">
+        <v>14.4</v>
+      </c>
+      <c r="AF68">
+        <v>5.6</v>
+      </c>
+      <c r="AG68">
+        <v>3.69</v>
+      </c>
+      <c r="AH68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI68">
+        <v>254</v>
+      </c>
+      <c r="AJ68">
+        <v>50</v>
+      </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>14</v>
       </c>
@@ -10181,8 +11630,29 @@
       <c r="AC69">
         <v>1</v>
       </c>
+      <c r="AD69">
+        <v>9.4</v>
+      </c>
+      <c r="AE69">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF69">
+        <v>5.9</v>
+      </c>
+      <c r="AG69">
+        <v>3.52</v>
+      </c>
+      <c r="AH69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI69">
+        <v>27</v>
+      </c>
+      <c r="AJ69">
+        <v>51</v>
+      </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>14</v>
       </c>
@@ -10270,8 +11740,29 @@
       <c r="AC70">
         <v>1</v>
       </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
+        <v>14.6</v>
+      </c>
+      <c r="AF70">
+        <v>5.9</v>
+      </c>
+      <c r="AG70">
+        <v>3.7</v>
+      </c>
+      <c r="AH70">
+        <v>7.9</v>
+      </c>
+      <c r="AI70">
+        <v>345</v>
+      </c>
+      <c r="AJ70">
+        <v>52</v>
+      </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>14</v>
       </c>
@@ -10359,8 +11850,29 @@
       <c r="AC71">
         <v>0</v>
       </c>
+      <c r="AD71">
+        <v>7.9</v>
+      </c>
+      <c r="AE71">
+        <v>15</v>
+      </c>
+      <c r="AF71">
+        <v>5.9</v>
+      </c>
+      <c r="AG71">
+        <v>3.64</v>
+      </c>
+      <c r="AH71">
+        <v>1.5</v>
+      </c>
+      <c r="AI71">
+        <v>153</v>
+      </c>
+      <c r="AJ71">
+        <v>46</v>
+      </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>15</v>
       </c>
@@ -10448,8 +11960,29 @@
       <c r="AC72">
         <v>1</v>
       </c>
+      <c r="AD72">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE72">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF72">
+        <v>5.6</v>
+      </c>
+      <c r="AG72">
+        <v>3.68</v>
+      </c>
+      <c r="AH72">
+        <v>3.3</v>
+      </c>
+      <c r="AI72">
+        <v>144</v>
+      </c>
+      <c r="AJ72">
+        <v>55</v>
+      </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>15</v>
       </c>
@@ -10537,8 +12070,29 @@
       <c r="AC73">
         <v>0</v>
       </c>
+      <c r="AD73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE73">
+        <v>14.4</v>
+      </c>
+      <c r="AF73">
+        <v>5.6</v>
+      </c>
+      <c r="AG73">
+        <v>3.69</v>
+      </c>
+      <c r="AH73">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI73">
+        <v>254</v>
+      </c>
+      <c r="AJ73">
+        <v>50</v>
+      </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>15</v>
       </c>
@@ -10626,8 +12180,29 @@
       <c r="AC74">
         <v>1</v>
       </c>
+      <c r="AD74">
+        <v>9.4</v>
+      </c>
+      <c r="AE74">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF74">
+        <v>5.9</v>
+      </c>
+      <c r="AG74">
+        <v>3.52</v>
+      </c>
+      <c r="AH74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI74">
+        <v>27</v>
+      </c>
+      <c r="AJ74">
+        <v>51</v>
+      </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>15</v>
       </c>
@@ -10715,8 +12290,29 @@
       <c r="AC75">
         <v>0</v>
       </c>
+      <c r="AD75">
+        <v>9</v>
+      </c>
+      <c r="AE75">
+        <v>14.6</v>
+      </c>
+      <c r="AF75">
+        <v>5.9</v>
+      </c>
+      <c r="AG75">
+        <v>3.7</v>
+      </c>
+      <c r="AH75">
+        <v>7.9</v>
+      </c>
+      <c r="AI75">
+        <v>345</v>
+      </c>
+      <c r="AJ75">
+        <v>52</v>
+      </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>15</v>
       </c>
@@ -10803,6 +12399,27 @@
       </c>
       <c r="AC76">
         <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>7.9</v>
+      </c>
+      <c r="AE76">
+        <v>15</v>
+      </c>
+      <c r="AF76">
+        <v>5.9</v>
+      </c>
+      <c r="AG76">
+        <v>3.64</v>
+      </c>
+      <c r="AH76">
+        <v>1.5</v>
+      </c>
+      <c r="AI76">
+        <v>153</v>
+      </c>
+      <c r="AJ76">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -10815,8 +12432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AF9DB-73E5-4F7C-91FD-6A96C9D91A79}">
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AA1"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AC76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17607,7 +19224,7 @@
   <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="AB2" sqref="AB2:AC76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24399,7 +26016,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24447,6 +26064,9 @@
       <c r="C3" s="3">
         <v>25</v>
       </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -24470,6 +26090,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>25</v>
       </c>
     </row>
